--- a/xlsx/侵吞_intext.xlsx
+++ b/xlsx/侵吞_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣東話</t>
+    <t>广东话</t>
   </si>
   <si>
     <t>政策_政策_政治_侵吞</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E6%88%B7</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%93%A1</t>
   </si>
   <si>
-    <t>官員</t>
+    <t>官员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%B2%B7</t>
   </si>
   <si>
-    <t>高買</t>
+    <t>高买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B3%95</t>
